--- a/document/Project Plan and WBS.xlsx
+++ b/document/Project Plan and WBS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="460" windowWidth="28800" windowHeight="15800"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
   <si>
     <t>Project Title:</t>
   </si>
@@ -205,21 +205,6 @@
     <t>Documentation - Readme.md</t>
   </si>
   <si>
-    <t>Analysis - Question 1</t>
-  </si>
-  <si>
-    <t>Analysis - Question 2</t>
-  </si>
-  <si>
-    <t>Analysis - Question 3</t>
-  </si>
-  <si>
-    <t>Analysis - Question 4</t>
-  </si>
-  <si>
-    <t>Analysis - Question 5</t>
-  </si>
-  <si>
     <t>Pending</t>
   </si>
   <si>
@@ -257,6 +242,18 @@
   </si>
   <si>
     <t xml:space="preserve">Issued Date </t>
+  </si>
+  <si>
+    <t>Wenyi Zhao</t>
+  </si>
+  <si>
+    <t>Analysis - Server Failure Model</t>
+  </si>
+  <si>
+    <t>Analysis - Concurrency issues</t>
+  </si>
+  <si>
+    <t>Analysis - Scalability</t>
   </si>
 </sst>
 </file>
@@ -264,7 +261,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -294,6 +291,7 @@
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -512,13 +510,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -580,7 +578,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
+      <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -615,7 +613,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="165" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -650,6 +647,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -704,58 +702,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -935,6 +881,58 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -949,17 +947,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B7:J39" totalsRowShown="0" headerRowDxfId="4" dataDxfId="5" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B7:J39" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" tableBorderDxfId="9">
   <autoFilter ref="B7:J39"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Element Number" dataDxfId="10"/>
-    <tableColumn id="2" name="WBS Elements                               Activity, Task, or Sub-Task Name" dataDxfId="9"/>
-    <tableColumn id="3" name="Definition of Activity or Task (Description)" dataDxfId="8"/>
-    <tableColumn id="4" name="Responsible Person or Group" dataDxfId="7"/>
-    <tableColumn id="5" name="Effect (days)" dataDxfId="6"/>
+    <tableColumn id="1" name="Element Number" dataDxfId="8"/>
+    <tableColumn id="2" name="WBS Elements                               Activity, Task, or Sub-Task Name" dataDxfId="7"/>
+    <tableColumn id="3" name="Definition of Activity or Task (Description)" dataDxfId="6"/>
+    <tableColumn id="4" name="Responsible Person or Group" dataDxfId="5"/>
+    <tableColumn id="5" name="Effect (days)" dataDxfId="4"/>
     <tableColumn id="6" name="Work Type" dataDxfId="3"/>
-    <tableColumn id="7" name="Assign Date" dataDxfId="1"/>
-    <tableColumn id="8" name="Status" dataDxfId="2"/>
+    <tableColumn id="7" name="Assign Date" dataDxfId="2"/>
+    <tableColumn id="8" name="Status" dataDxfId="1"/>
     <tableColumn id="9" name="Update Date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1234,8 +1232,8 @@
   </sheetPr>
   <dimension ref="B1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1265,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="14"/>
@@ -1273,10 +1271,10 @@
     </row>
     <row r="3" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="36" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14"/>
@@ -1295,7 +1293,7 @@
     </row>
     <row r="5" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="38" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C5" s="34">
         <v>43203</v>
@@ -1683,9 +1681,11 @@
         <v>33</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="F20" s="8">
         <v>1</v>
       </c>
@@ -1710,9 +1710,11 @@
         <v>34</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="F21" s="19">
         <v>1</v>
       </c>
@@ -1737,9 +1739,11 @@
         <v>35</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="F22" s="8">
         <v>1</v>
       </c>
@@ -1764,9 +1768,11 @@
         <v>36</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="F23" s="19">
         <v>1</v>
       </c>
@@ -1791,9 +1797,11 @@
         <v>37</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F24" s="8">
         <v>1</v>
       </c>
@@ -1818,9 +1826,11 @@
         <v>38</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F25" s="19">
         <v>1</v>
       </c>
@@ -1845,9 +1855,11 @@
         <v>39</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F26" s="8">
         <v>1</v>
       </c>
@@ -1872,16 +1884,18 @@
         <v>52</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="F27" s="8">
         <v>1</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="26"/>
       <c r="I27" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J27" s="26">
         <v>43206</v>
@@ -1892,17 +1906,19 @@
         <v>21</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="E28" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="F28" s="8">
         <v>0.5</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="26"/>
       <c r="I28" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J28" s="26">
         <v>43206</v>
@@ -1913,17 +1929,19 @@
         <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="E29" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="F29" s="8">
         <v>0.5</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="26"/>
       <c r="I29" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J29" s="26">
         <v>43206</v>
@@ -1934,72 +1952,52 @@
         <v>23</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="E30" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="F30" s="8">
         <v>0.5</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="26"/>
       <c r="I30" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="J30" s="26">
         <v>43206</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="4">
-        <v>24</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="F31" s="8"/>
       <c r="G31" s="4"/>
       <c r="H31" s="26"/>
-      <c r="I31" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J31" s="26">
-        <v>43206</v>
-      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="18">
-        <v>25</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>57</v>
-      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="F32" s="8"/>
       <c r="G32" s="4"/>
       <c r="H32" s="26"/>
-      <c r="I32" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J32" s="26">
-        <v>43206</v>
-      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="26"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="8">
-        <v>0.5</v>
-      </c>
+      <c r="F33" s="8"/>
       <c r="G33" s="4"/>
       <c r="H33" s="26"/>
       <c r="I33" s="4"/>
@@ -2069,7 +2067,7 @@
       <c r="E39" s="12"/>
       <c r="F39" s="23">
         <f>SUM(F8:F37)</f>
-        <v>29</v>
+        <v>27.5</v>
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="27"/>

--- a/document/Project Plan and WBS.xlsx
+++ b/document/Project Plan and WBS.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Documents/projects/DistributedSystem/document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panyiru/Desktop/DS project/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13920"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
   <si>
     <t>Project Title:</t>
   </si>
@@ -254,6 +254,10 @@
   </si>
   <si>
     <t>Analysis - Scalability</t>
+  </si>
+  <si>
+    <t>Yiru Pan</t>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -261,7 +265,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -510,13 +514,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -552,14 +556,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -578,7 +582,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -647,7 +651,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
+      <numFmt numFmtId="176" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1232,8 +1236,8 @@
   </sheetPr>
   <dimension ref="B1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:G34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1405,7 +1409,9 @@
       <c r="D10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="18"/>
+      <c r="E10" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="F10" s="19"/>
       <c r="G10" s="4" t="s">
         <v>45</v>
@@ -1430,7 +1436,9 @@
       <c r="D11" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="F11" s="19"/>
       <c r="G11" s="4" t="s">
         <v>45</v>
@@ -1455,7 +1463,9 @@
       <c r="D12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="18"/>
+      <c r="E12" s="18" t="s">
+        <v>70</v>
+      </c>
       <c r="F12" s="19"/>
       <c r="G12" s="4" t="s">
         <v>45</v>

--- a/document/Project Plan and WBS.xlsx
+++ b/document/Project Plan and WBS.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28502"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panyiru/Desktop/DS project/document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eric/Documents/projects/DistributedSystem/document/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13920"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19400"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -265,7 +265,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -514,13 +514,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -556,14 +556,14 @@
     </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="已访问的超链接" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
     <dxf>
@@ -582,7 +582,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="176" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
+      <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -651,7 +651,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="176" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
+      <numFmt numFmtId="164" formatCode="[$-C09]dd\-mmmm\-yyyy;@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1236,8 +1236,8 @@
   </sheetPr>
   <dimension ref="B1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1821,8 +1821,8 @@
       <c r="H24" s="26">
         <v>43206</v>
       </c>
-      <c r="I24" s="17" t="s">
-        <v>51</v>
+      <c r="I24" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="J24" s="26">
         <v>43206</v>
@@ -1850,8 +1850,8 @@
       <c r="H25" s="26">
         <v>43206</v>
       </c>
-      <c r="I25" s="17" t="s">
-        <v>51</v>
+      <c r="I25" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="J25" s="26">
         <v>43206</v>

--- a/document/Project Plan and WBS.xlsx
+++ b/document/Project Plan and WBS.xlsx
@@ -1237,7 +1237,7 @@
   <dimension ref="B1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1879,11 +1879,11 @@
       <c r="H26" s="26">
         <v>43206</v>
       </c>
-      <c r="I26" s="17" t="s">
-        <v>51</v>
+      <c r="I26" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="J26" s="26">
-        <v>43206</v>
+        <v>43207</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="48" x14ac:dyDescent="0.2">

--- a/document/Project Plan and WBS.xlsx
+++ b/document/Project Plan and WBS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19400"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="69">
   <si>
     <t>Project Title:</t>
   </si>
@@ -199,13 +199,7 @@
     <t>Update Date</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t>Documentation - Readme.md</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
   <si>
     <t>All related behaviours of user register, includes both Sever side and Client side</t>
@@ -311,7 +305,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,12 +315,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,7 +438,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -492,9 +480,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -523,10 +508,10 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1236,8 +1221,8 @@
   </sheetPr>
   <dimension ref="B1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="87" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1263,32 +1248,32 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>62</v>
+      <c r="C2" s="34" t="s">
+        <v>60</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="14"/>
       <c r="F2" s="15"/>
     </row>
     <row r="3" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>64</v>
+      <c r="B3" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>62</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="14"/>
       <c r="F3" s="15"/>
     </row>
     <row r="4" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2"/>
@@ -1296,21 +1281,21 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="34">
+      <c r="B5" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="33">
         <v>43203</v>
       </c>
       <c r="D5" s="16"/>
-      <c r="E5" s="30"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="31"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
-      <c r="E6" s="30"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="2:10" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
@@ -1334,7 +1319,7 @@
       <c r="H7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="I7" s="23" t="s">
         <v>48</v>
       </c>
       <c r="J7" s="10" t="s">
@@ -1342,356 +1327,356 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="18">
+      <c r="B8" s="17">
         <v>1</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>4</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="24">
         <v>43188</v>
       </c>
-      <c r="I8" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="26">
+      <c r="I8" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="25">
         <v>43203</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="B9" s="18">
+      <c r="B9" s="17">
         <v>2</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>2</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="25">
         <v>43188</v>
       </c>
-      <c r="I9" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="26">
+      <c r="I9" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="25">
         <v>43203</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B10" s="18">
+      <c r="B10" s="17">
         <v>3</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="19"/>
+      <c r="E10" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="18"/>
       <c r="G10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="25">
         <v>43203</v>
       </c>
-      <c r="I10" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="26">
+      <c r="I10" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="25">
         <v>43206</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="B11" s="18">
+      <c r="B11" s="17">
         <v>4</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F11" s="19"/>
+      <c r="E11" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="18"/>
       <c r="G11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="25">
         <v>43203</v>
       </c>
-      <c r="I11" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="26">
+      <c r="I11" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="25">
         <v>43206</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="B12" s="18">
+      <c r="B12" s="17">
         <v>5</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="19"/>
+      <c r="E12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="18"/>
       <c r="G12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="25">
         <v>43203</v>
       </c>
-      <c r="I12" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="26">
+      <c r="I12" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="25">
         <v>43206</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="80" x14ac:dyDescent="0.2">
-      <c r="B13" s="18">
+      <c r="B13" s="17">
         <v>6</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="18">
         <v>2</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="25">
         <v>43203</v>
       </c>
-      <c r="I13" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="26">
+      <c r="I13" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="25">
         <v>43206</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="64" x14ac:dyDescent="0.2">
-      <c r="B14" s="18">
+      <c r="B14" s="17">
         <v>7</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="18">
         <v>2</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="25">
         <v>43203</v>
       </c>
-      <c r="I14" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="26">
+      <c r="I14" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="25">
         <v>43206</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>8</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="25">
         <v>43203</v>
       </c>
-      <c r="I15" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="26">
+      <c r="I15" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="25">
         <v>43206</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B16" s="18">
+      <c r="B16" s="17">
         <v>9</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="18">
         <v>2</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="25">
         <v>43203</v>
       </c>
-      <c r="I16" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="26">
+      <c r="I16" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="25">
         <v>43206</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>10</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="18">
         <v>2</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="25">
         <v>43203</v>
       </c>
-      <c r="I17" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" s="26">
+      <c r="I17" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="25">
         <v>43206</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="18">
+      <c r="B18" s="17">
         <v>11</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="18">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="25">
         <v>43203</v>
       </c>
-      <c r="I18" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="26">
+      <c r="I18" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="25">
         <v>43206</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <v>12</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="18">
         <v>1</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="25">
         <v>43205</v>
       </c>
-      <c r="I19" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="26">
+      <c r="I19" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="25">
         <v>43206</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B20" s="18">
+      <c r="B20" s="17">
         <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>21</v>
@@ -1702,57 +1687,57 @@
       <c r="G20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="25">
         <v>43206</v>
       </c>
-      <c r="I20" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" s="26">
-        <v>43206</v>
+      <c r="I20" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="25">
+        <v>43213</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="B21" s="18">
+      <c r="B21" s="17">
         <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="18">
         <v>1</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="25">
         <v>43206</v>
       </c>
-      <c r="I21" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21" s="26">
-        <v>43206</v>
+      <c r="I21" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="25">
+        <v>43213</v>
       </c>
     </row>
     <row r="22" spans="2:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="B22" s="18">
+      <c r="B22" s="17">
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F22" s="8">
         <v>1</v>
@@ -1760,54 +1745,54 @@
       <c r="G22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="25">
         <v>43206</v>
       </c>
-      <c r="I22" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="J22" s="26">
-        <v>43206</v>
+      <c r="I22" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="25">
+        <v>43213</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="B23" s="18">
+      <c r="B23" s="17">
         <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="19">
+        <v>64</v>
+      </c>
+      <c r="F23" s="18">
         <v>1</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="25">
         <v>43206</v>
       </c>
-      <c r="I23" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="J23" s="26">
-        <v>43206</v>
+      <c r="I23" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="25">
+        <v>43213</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="32" x14ac:dyDescent="0.2">
-      <c r="B24" s="18">
+      <c r="B24" s="17">
         <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>6</v>
@@ -1818,54 +1803,54 @@
       <c r="G24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="25">
         <v>43206</v>
       </c>
-      <c r="I24" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" s="26">
-        <v>43206</v>
+      <c r="I24" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="25">
+        <v>43213</v>
       </c>
     </row>
     <row r="25" spans="2:10" ht="48" x14ac:dyDescent="0.2">
-      <c r="B25" s="18">
+      <c r="B25" s="17">
         <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="18">
         <v>1</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="25">
         <v>43206</v>
       </c>
-      <c r="I25" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="J25" s="26">
-        <v>43206</v>
+      <c r="I25" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="25">
+        <v>43213</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="64" x14ac:dyDescent="0.2">
-      <c r="B26" s="18">
+      <c r="B26" s="17">
         <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>6</v>
@@ -1876,14 +1861,14 @@
       <c r="G26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="25">
         <v>43206</v>
       </c>
-      <c r="I26" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="J26" s="26">
-        <v>43207</v>
+      <c r="I26" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J26" s="25">
+        <v>43213</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="48" x14ac:dyDescent="0.2">
@@ -1891,10 +1876,10 @@
         <v>20</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>6</v>
@@ -1903,35 +1888,39 @@
         <v>1</v>
       </c>
       <c r="G27" s="4"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="26">
-        <v>43206</v>
+      <c r="H27" s="25">
+        <v>43213</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J27" s="25">
+        <v>43217</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="18">
+      <c r="B28" s="17">
         <v>21</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F28" s="8">
         <v>0.5</v>
       </c>
       <c r="G28" s="4"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" s="26">
-        <v>43206</v>
+      <c r="H28" s="25">
+        <v>43213</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="25">
+        <v>43217</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
@@ -1939,7 +1928,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
@@ -1949,20 +1938,22 @@
         <v>0.5</v>
       </c>
       <c r="G29" s="4"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29" s="26">
-        <v>43206</v>
+      <c r="H29" s="25">
+        <v>43213</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J29" s="25">
+        <v>43217</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="18">
+      <c r="B30" s="17">
         <v>23</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
@@ -1972,12 +1963,14 @@
         <v>0.5</v>
       </c>
       <c r="G30" s="4"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="J30" s="26">
-        <v>43206</v>
+      <c r="H30" s="25">
+        <v>43213</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="25">
+        <v>43217</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
@@ -1987,20 +1980,20 @@
       <c r="E31" s="4"/>
       <c r="F31" s="8"/>
       <c r="G31" s="4"/>
-      <c r="H31" s="26"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="26"/>
+      <c r="J31" s="25"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="18"/>
+      <c r="B32" s="17"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="8"/>
       <c r="G32" s="4"/>
-      <c r="H32" s="26"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="26"/>
+      <c r="J32" s="25"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33" s="4"/>
@@ -2009,9 +2002,9 @@
       <c r="E33" s="4"/>
       <c r="F33" s="8"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="26"/>
+      <c r="H33" s="25"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="26"/>
+      <c r="J33" s="25"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34" s="4"/>
@@ -2020,9 +2013,9 @@
       <c r="E34" s="4"/>
       <c r="F34" s="8"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="26"/>
+      <c r="H34" s="25"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="26"/>
+      <c r="J34" s="25"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35" s="4"/>
@@ -2031,9 +2024,9 @@
       <c r="E35" s="4"/>
       <c r="F35" s="8"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="26"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="26"/>
+      <c r="J35" s="25"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="4"/>
@@ -2042,9 +2035,9 @@
       <c r="E36" s="4"/>
       <c r="F36" s="8"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="26"/>
+      <c r="H36" s="25"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="26"/>
+      <c r="J36" s="25"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37" s="4"/>
@@ -2053,9 +2046,9 @@
       <c r="E37" s="4"/>
       <c r="F37" s="8"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="26"/>
+      <c r="H37" s="25"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="26"/>
+      <c r="J37" s="25"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38" s="4"/>
@@ -2064,25 +2057,25 @@
       <c r="E38" s="4"/>
       <c r="F38" s="8"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="26"/>
+      <c r="H38" s="25"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="26"/>
+      <c r="J38" s="25"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="23"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
-      <c r="F39" s="23">
+      <c r="F39" s="22">
         <f>SUM(F8:F37)</f>
         <v>27.5</v>
       </c>
       <c r="G39" s="12"/>
-      <c r="H39" s="27"/>
+      <c r="H39" s="26"/>
       <c r="I39" s="12"/>
-      <c r="J39" s="27"/>
+      <c r="J39" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
